--- a/uva/uva三星題.xlsx
+++ b/uva/uva三星題.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zg451\Desktop\leetcode\uva\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1386D8-6C82-4DD5-8419-B8DA0361A894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513A9343-40B6-4E4B-BBD8-D23CBFED52A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0DB7907C-112C-4AA2-BCF2-23008937EA04}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="478">
   <si>
     <t>題目編號</t>
   </si>
@@ -1931,7 +1931,7 @@
   <dimension ref="A1:G331"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2052,6 +2052,9 @@
       </c>
       <c r="F6" s="5">
         <v>37643</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">

--- a/uva/uva三星題.xlsx
+++ b/uva/uva三星題.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zg451\Desktop\leetcode\uva\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513A9343-40B6-4E4B-BBD8-D23CBFED52A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10679CB0-71A6-4B37-ABD0-BC3DD449FEAB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0DB7907C-112C-4AA2-BCF2-23008937EA04}"/>
   </bookViews>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="481">
   <si>
     <t>題目編號</t>
   </si>
@@ -1468,6 +1459,30 @@
   </si>
   <si>
     <t>ok</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>simulation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>　</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1475,7 +1490,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1505,6 +1520,13 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1930,8 +1952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77C013C2-2414-4B79-A11F-CB3A8FED17D7}">
   <dimension ref="A1:G331"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2076,6 +2098,9 @@
       <c r="F7" s="9">
         <v>37665</v>
       </c>
+      <c r="G7" s="11" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
@@ -2094,6 +2119,9 @@
       <c r="F8" s="5">
         <v>37662</v>
       </c>
+      <c r="G8" s="10" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
@@ -2243,7 +2271,7 @@
         <v>38694</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>136</v>
       </c>
@@ -2260,8 +2288,11 @@
       <c r="F17" s="9">
         <v>37217</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="G17" s="11" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>138</v>
       </c>
@@ -2279,7 +2310,7 @@
         <v>37273</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>141</v>
       </c>
@@ -2299,7 +2330,7 @@
         <v>41569</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>142</v>
       </c>
@@ -2317,7 +2348,7 @@
         <v>37599</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>143</v>
       </c>
@@ -2335,7 +2366,7 @@
         <v>40840</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>146</v>
       </c>
@@ -2353,7 +2384,7 @@
         <v>37554</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>147</v>
       </c>
@@ -2373,7 +2404,7 @@
         <v>38446</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>153</v>
       </c>
@@ -2391,7 +2422,7 @@
         <v>37554</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>161</v>
       </c>
@@ -2409,7 +2440,7 @@
         <v>37734</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>166</v>
       </c>
@@ -2427,7 +2458,7 @@
         <v>39216</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="64.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>167</v>
       </c>
@@ -2447,7 +2478,7 @@
         <v>37691</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="64.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>190</v>
       </c>
@@ -2467,7 +2498,7 @@
         <v>37711</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>191</v>
       </c>
@@ -2485,7 +2516,7 @@
         <v>37713</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>193</v>
       </c>
@@ -2505,7 +2536,7 @@
         <v>38623</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>195</v>
       </c>
@@ -2523,7 +2554,7 @@
         <v>37363</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>200</v>
       </c>
@@ -3135,7 +3166,7 @@
         <v>37711</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <v>439</v>
       </c>
@@ -3153,7 +3184,7 @@
         <v>37580</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>441</v>
       </c>
@@ -3173,7 +3204,7 @@
         <v>37392</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="64.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
         <v>442</v>
       </c>
@@ -3191,7 +3222,7 @@
         <v>37670</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>443</v>
       </c>
@@ -3210,8 +3241,11 @@
       <c r="F68" s="5">
         <v>37392</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="G68" s="10" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
         <v>451</v>
       </c>
@@ -3225,13 +3259,13 @@
         <v>118</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>33</v>
+        <v>480</v>
       </c>
       <c r="F69" s="9">
         <v>37607</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>455</v>
       </c>
@@ -3249,7 +3283,7 @@
         <v>37384</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
         <v>459</v>
       </c>
@@ -3267,7 +3301,7 @@
         <v>37573</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>465</v>
       </c>
@@ -3285,7 +3319,7 @@
         <v>38869</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A73" s="6">
         <v>471</v>
       </c>
@@ -3303,7 +3337,7 @@
         <v>37384</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="64.8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>474</v>
       </c>
@@ -3321,7 +3355,7 @@
         <v>37570</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
         <v>485</v>
       </c>
@@ -3339,7 +3373,7 @@
         <v>37384</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="64.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>486</v>
       </c>
@@ -3357,7 +3391,7 @@
         <v>38870</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A77" s="6">
         <v>489</v>
       </c>
@@ -3375,7 +3409,7 @@
         <v>37384</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>493</v>
       </c>
@@ -3395,7 +3429,7 @@
         <v>39244</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A79" s="6">
         <v>495</v>
       </c>
@@ -3413,7 +3447,7 @@
         <v>37384</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>496</v>
       </c>
